--- a/biology/Botanique/Antrophyum_annetii/Antrophyum_annetii.xlsx
+++ b/biology/Botanique/Antrophyum_annetii/Antrophyum_annetii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antrophyum annetii (Jeanp.) Tard., connue également sous le nom de Antrophyum subsessile var. annetii, est une espèce de plantes de la famille des Pteridaceae et du genre Antrophyum, endémique du Cameroun. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique annetii rend hommage au botaniste français Émile Annet[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique annetii rend hommage au botaniste français Émile Annet.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une fougère herbacée à rhizome court[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une fougère herbacée à rhizome court.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, endémique, elle a été observée au Cameroun sur deux sites, l'un dans la Région du Sud-Ouest (monts Bakossi), l'autre dans la Région du Sud (Lolodorf, mont Fide[3]).
-Elle était inscrite sur la liste rouge de l'UICN en 1997[4], mais le premier site se trouve aujourd'hui[3] dans l'enceinte du parc national de Bakossi, créé en 2008.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, endémique, elle a été observée au Cameroun sur deux sites, l'un dans la Région du Sud-Ouest (monts Bakossi), l'autre dans la Région du Sud (Lolodorf, mont Fide).
+Elle était inscrite sur la liste rouge de l'UICN en 1997, mais le premier site se trouve aujourd'hui dans l'enceinte du parc national de Bakossi, créé en 2008.
 </t>
         </is>
       </c>
